--- a/DATA_goal/Junction_Flooding_486.xlsx
+++ b/DATA_goal/Junction_Flooding_486.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44817.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.79</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.95</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.45</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>25.67</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>135.67</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>2.57</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.26</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.65</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.67</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.4</v>
+        <v>24.03</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.08</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44817.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.72</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.19</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.74</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.71</v>
+        <v>27.08</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.61</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.97</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.95</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.93</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.16</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.49</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44817.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.19</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.78</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.7</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.61</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.39</v>
+        <v>23.94</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.51</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.99</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.56</v>
+        <v>95.64</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.79</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.89</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.88</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.17</v>
+        <v>21.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44817.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.91</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.61</v>
+        <v>26.09</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.56</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="O5" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.68</v>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.57</v>
+        <v>95.67</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.93</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.51</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.56</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.91</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.39</v>
+        <v>23.86</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_486.xlsx
+++ b/DATA_goal/Junction_Flooding_486.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44817.54861111111</v>
+        <v>45167.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.79</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.95</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.45</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>25.67</v>
+        <v>40.812</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.99</v>
+        <v>32.818</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.99</v>
+        <v>15.123</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>26.45</v>
+        <v>47.986</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>14.54</v>
+        <v>23.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.68</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>8.23</v>
+        <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.12</v>
+        <v>16.076</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.98</v>
+        <v>16.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.01</v>
+        <v>4.827</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.4</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.78</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.71</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.49</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>135.67</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>25.95</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.68</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>16.48</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.57</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.65</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.66</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.14</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.67</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.71</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>24.03</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.51</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.85</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44817.55555555555</v>
+        <v>45167.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.72</v>
+        <v>7.687</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.68</v>
+        <v>5.061</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.3</v>
+        <v>1.518</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.19</v>
+        <v>16.474</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.91</v>
+        <v>13.027</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2</v>
+        <v>6.05</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.74</v>
+        <v>26.279</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.49</v>
+        <v>9.308</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.28</v>
+        <v>3.867</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.48</v>
+        <v>5.615</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.43</v>
+        <v>6.57</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.77</v>
+        <v>6.766</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.74</v>
+        <v>1.937</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.26</v>
+        <v>6.015</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.02</v>
+        <v>8.375999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.4</v>
+        <v>5.394</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.481</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.08</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.61</v>
+        <v>16.997</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.08</v>
+        <v>5.552</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.97</v>
+        <v>11.042</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.95</v>
+        <v>5.631</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.84</v>
+        <v>1.366</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.93</v>
+        <v>12.426</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.84</v>
+        <v>4.904</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.89</v>
+        <v>4.582</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.16</v>
+        <v>5.349</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.54</v>
+        <v>6.71</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.49</v>
+        <v>24.163</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.92</v>
+        <v>2.975</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.61</v>
+        <v>6.943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44817.5625</v>
+        <v>45167.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.52</v>
+        <v>16.815</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.19</v>
+        <v>12.169</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.335</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.78</v>
+        <v>36.463</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.7</v>
+        <v>29.696</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.61</v>
+        <v>13.233</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.94</v>
+        <v>49.061</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.47</v>
+        <v>20.36</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.45</v>
+        <v>8.919</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.42</v>
+        <v>13.187</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.51</v>
+        <v>14.63</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.1</v>
+        <v>15.348</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.17</v>
+        <v>4.226</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.77</v>
+        <v>13.159</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.43</v>
+        <v>18.62</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.99</v>
+        <v>11.225</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.88</v>
+        <v>1.054</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.64</v>
+        <v>192.956</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.79</v>
+        <v>36.731</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.25</v>
+        <v>12.146</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.3</v>
+        <v>24.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.48</v>
+        <v>12.841</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.25</v>
+        <v>2.125</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.89</v>
+        <v>24.029</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.52</v>
+        <v>10.728</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.03</v>
+        <v>9.609</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.89</v>
+        <v>11.279</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.88</v>
+        <v>15.259</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.71</v>
+        <v>44.353</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.37</v>
+        <v>6.779</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.81</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44817.56944444445</v>
+        <v>45167.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>6.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.28</v>
+        <v>4.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.8</v>
+        <v>14.56</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.91</v>
+        <v>11.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.66</v>
+        <v>5.29</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.09</v>
+        <v>24.21</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.47</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.54</v>
+        <v>3.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.56</v>
+        <v>5.08</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.53</v>
+        <v>5.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.09</v>
+        <v>6.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.17</v>
+        <v>1.7</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.77</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.52</v>
+        <v>7.43</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.9</v>
+        <v>4.62</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.67</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.93</v>
+        <v>14.9</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.25</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.51</v>
+        <v>9.84</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.56</v>
+        <v>5.08</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.8</v>
+        <v>11.33</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.52</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.99</v>
+        <v>3.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.84</v>
+        <v>4.59</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.91</v>
+        <v>6.07</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.86</v>
+        <v>22.25</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.42</v>
+        <v>2.65</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44817.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.63</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.77</v>
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_486.xlsx
+++ b/DATA_goal/Junction_Flooding_486.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45167.50694444445</v>
+        <v>44817.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.217</v>
+        <v>11.794</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.901</v>
+        <v>7.946</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.042</v>
+        <v>3.447</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.812</v>
+        <v>25.671</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.818</v>
+        <v>18.994</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.123</v>
+        <v>8.994999999999999</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>47.986</v>
+        <v>26.449</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.269</v>
+        <v>14.543</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>5.683</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.67</v>
+        <v>8.23</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.076</v>
+        <v>10.12</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.742</v>
+        <v>10.985</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.827</v>
+        <v>3.013</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.038</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.994</v>
+        <v>12.777</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.46</v>
+        <v>2.71</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.249</v>
+        <v>1.486</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>221.547</v>
+        <v>135.674</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>41.81</v>
+        <v>25.95</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.881</v>
+        <v>8.676</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.553</v>
+        <v>16.478</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.055</v>
+        <v>8.538</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.03</v>
+        <v>2.569</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.312</v>
+        <v>14.652</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.261</v>
+        <v>7.663</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.125</v>
+        <v>7.143</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.047</v>
+        <v>8.202</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.565</v>
+        <v>10.671</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.456</v>
+        <v>2.707</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.557</v>
+        <v>24.031</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.647</v>
+        <v>4.513</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.354</v>
+        <v>10.846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45167.51388888889</v>
+        <v>44817.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.687</v>
+        <v>2.719</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.061</v>
+        <v>1.676</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.518</v>
+        <v>1.301</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.474</v>
+        <v>6.194</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.027</v>
+        <v>3.915</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.05</v>
+        <v>1.999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>26.279</v>
+        <v>11.74</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.308</v>
+        <v>3.49</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.867</v>
+        <v>1.281</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.615</v>
+        <v>1.478</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.57</v>
+        <v>2.435</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.766</v>
+        <v>2.77</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.937</v>
+        <v>0.739</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.015</v>
+        <v>2.256</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.375999999999999</v>
+        <v>3.023</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.394</v>
+        <v>2.396</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.481</v>
+        <v>1.244</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.589</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>84.26000000000001</v>
+        <v>27.075</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.997</v>
+        <v>6.613</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.552</v>
+        <v>2.082</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>11.042</v>
+        <v>3.974</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.631</v>
+        <v>1.947</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.366</v>
+        <v>0.84</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.426</v>
+        <v>5.931</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.904</v>
+        <v>1.839</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.582</v>
+        <v>1.889</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.349</v>
+        <v>2.155</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.71</v>
+        <v>2.535</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.265</v>
+        <v>1.141</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>24.163</v>
+        <v>11.491</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.975</v>
+        <v>0.925</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.943</v>
+        <v>2.607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45167.52083333334</v>
+        <v>44817.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.815</v>
+        <v>8.516999999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.169</v>
+        <v>6.191</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.335</v>
+        <v>1.039</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>36.463</v>
+        <v>18.783</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.696</v>
+        <v>14.702</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.233</v>
+        <v>6.613</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>49.061</v>
+        <v>23.935</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.36</v>
+        <v>10.471</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.919</v>
+        <v>4.449</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.187</v>
+        <v>6.424</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.63</v>
+        <v>7.515</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.348</v>
+        <v>8.101000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.226</v>
+        <v>2.17</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.159</v>
+        <v>6.767</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.62</v>
+        <v>9.433999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.225</v>
+        <v>5.987</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.054</v>
+        <v>0.884</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.572</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>192.956</v>
+        <v>95.642</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>36.731</v>
+        <v>18.795</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.146</v>
+        <v>6.247</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.53</v>
+        <v>12.303</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.841</v>
+        <v>6.476</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.125</v>
+        <v>1.245</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.029</v>
+        <v>11.891</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.728</v>
+        <v>5.517</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.609</v>
+        <v>5.032</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.279</v>
+        <v>5.886</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.259</v>
+        <v>7.884</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0.724</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>44.353</v>
+        <v>21.707</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.779</v>
+        <v>3.375</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.185</v>
+        <v>7.809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45167.52777777778</v>
+        <v>44817.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.73</v>
+        <v>8.538</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.71</v>
+        <v>6.278</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.834</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.56</v>
+        <v>18.797</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.68</v>
+        <v>14.911</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.29</v>
+        <v>6.656</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>24.21</v>
+        <v>26.088</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>10.471</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.52</v>
+        <v>4.535</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.08</v>
+        <v>6.564</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.85</v>
+        <v>7.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.09</v>
+        <v>8.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.7</v>
+        <v>2.174</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.26</v>
+        <v>6.767</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.43</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.62</v>
+        <v>5.903</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.483</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.81999999999999</v>
+        <v>95.67100000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.9</v>
+        <v>18.93</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.86</v>
+        <v>6.247</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.84</v>
+        <v>12.513</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.08</v>
+        <v>6.555</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1</v>
+        <v>1.159</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.33</v>
+        <v>12.805</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.29</v>
+        <v>5.517</v>
       </c>
       <c r="AB5" s="4" t="n">
+        <v>4.989</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>5.845</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>7.906</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>23.862</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44817.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K6" s="4" t="n">
         <v>3.92</v>
       </c>
-      <c r="AC5" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>22.25</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>6.08</v>
+      <c r="L6" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>55.63</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_486.xlsx
+++ b/DATA_goal/Junction_Flooding_486.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44817.54861111111</v>
+        <v>45167.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.794</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.946</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.447</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>25.671</v>
+        <v>40.812</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.994</v>
+        <v>32.818</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.994999999999999</v>
+        <v>15.123</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>26.449</v>
+        <v>47.986</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>14.543</v>
+        <v>23.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.683</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>8.23</v>
+        <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.12</v>
+        <v>16.076</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.985</v>
+        <v>16.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.013</v>
+        <v>4.827</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.398999999999999</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.777</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.71</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.486</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>135.674</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>25.95</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.676</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>16.478</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.538</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.569</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.652</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.663</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.143</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>8.202</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.671</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.707</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>24.031</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.513</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.846</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44817.55555555555</v>
+        <v>45167.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.719</v>
+        <v>7.687</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.676</v>
+        <v>5.061</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.301</v>
+        <v>1.518</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.194</v>
+        <v>16.474</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.915</v>
+        <v>13.027</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.999</v>
+        <v>6.05</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.74</v>
+        <v>26.279</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.49</v>
+        <v>9.308</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.281</v>
+        <v>3.867</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.478</v>
+        <v>5.615</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.435</v>
+        <v>6.57</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.77</v>
+        <v>6.766</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.739</v>
+        <v>1.937</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.256</v>
+        <v>6.015</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.023</v>
+        <v>8.375999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.396</v>
+        <v>5.394</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.244</v>
+        <v>1.481</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.589</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.075</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.613</v>
+        <v>16.997</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.082</v>
+        <v>5.552</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.974</v>
+        <v>11.042</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.947</v>
+        <v>5.631</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.84</v>
+        <v>1.366</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.931</v>
+        <v>12.426</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.839</v>
+        <v>4.904</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.889</v>
+        <v>4.582</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.155</v>
+        <v>5.349</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.535</v>
+        <v>6.71</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.141</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.491</v>
+        <v>24.163</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.925</v>
+        <v>2.975</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.607</v>
+        <v>6.943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44817.5625</v>
+        <v>45167.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.516999999999999</v>
+        <v>16.815</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.191</v>
+        <v>12.169</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.039</v>
+        <v>1.335</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.783</v>
+        <v>36.463</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.702</v>
+        <v>29.696</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.613</v>
+        <v>13.233</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.935</v>
+        <v>49.061</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.471</v>
+        <v>20.36</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.449</v>
+        <v>8.919</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.424</v>
+        <v>13.187</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.515</v>
+        <v>14.63</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.101000000000001</v>
+        <v>15.348</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.17</v>
+        <v>4.226</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.767</v>
+        <v>13.159</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.433999999999999</v>
+        <v>18.62</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.987</v>
+        <v>11.225</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.884</v>
+        <v>1.054</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.572</v>
+        <v>0.83</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.642</v>
+        <v>192.956</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.795</v>
+        <v>36.731</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.247</v>
+        <v>12.146</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.303</v>
+        <v>24.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.476</v>
+        <v>12.841</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.245</v>
+        <v>2.125</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.891</v>
+        <v>24.029</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.517</v>
+        <v>10.728</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.032</v>
+        <v>9.609</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.886</v>
+        <v>11.279</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.884</v>
+        <v>15.259</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.724</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.707</v>
+        <v>44.353</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.375</v>
+        <v>6.779</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.809</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44817.56944444445</v>
+        <v>45167.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.538</v>
+        <v>6.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.278</v>
+        <v>4.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.834</v>
+        <v>0.78</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.797</v>
+        <v>14.56</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.911</v>
+        <v>11.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.656</v>
+        <v>5.29</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.088</v>
+        <v>24.21</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.471</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.535</v>
+        <v>3.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.564</v>
+        <v>5.08</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.53</v>
+        <v>5.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.09</v>
+        <v>6.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.174</v>
+        <v>1.7</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.767</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.523999999999999</v>
+        <v>7.43</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.903</v>
+        <v>4.62</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.483</v>
+        <v>0.43</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.67100000000001</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.93</v>
+        <v>14.9</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.247</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.513</v>
+        <v>9.84</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.555</v>
+        <v>5.08</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.159</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.805</v>
+        <v>11.33</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.517</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.989</v>
+        <v>3.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.845</v>
+        <v>4.59</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.906</v>
+        <v>6.07</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.862</v>
+        <v>22.25</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.416</v>
+        <v>2.65</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44817.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.63</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.77</v>
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>
